--- a/Documentación/Plantilla_Bitacora_ResoluciónProb.xlsx
+++ b/Documentación/Plantilla_Bitacora_ResoluciónProb.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3807E2-1A8E-433A-810B-D1F3C9B82031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tecnológico de Costa Rica</t>
   </si>
@@ -38,12 +39,21 @@
   </si>
   <si>
     <t>Tiempo transcurrido en horas</t>
+  </si>
+  <si>
+    <t>Error al generar XML</t>
+  </si>
+  <si>
+    <t>Cambiar el valor de "NA" (norteamerica) por NRA ya que genera un valor vacío y, en el excel, rellenar con "No tiene" los espacios en blanco</t>
+  </si>
+  <si>
+    <t>2 horas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,10 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -125,6 +134,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -144,9 +168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,9 +208,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,114 +453,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.53125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.796875" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.65">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B5" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="23.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="23.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="B6" s="8">
+        <v>45188</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45189</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="23.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="23.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="23.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="23.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentación/Plantilla_Bitacora_ResoluciónProb.xlsx
+++ b/Documentación/Plantilla_Bitacora_ResoluciónProb.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3807E2-1A8E-433A-810B-D1F3C9B82031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5543A2-FDB4-48F3-BEC1-7D33288B0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tecnológico de Costa Rica</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>2 horas</t>
+  </si>
+  <si>
+    <t>En la función de mostrar los códigos de un país, da error con cualquier selección del país</t>
+  </si>
+  <si>
+    <t>En la función hablantes por idioma genera el HTML vacío.</t>
+  </si>
+  <si>
+    <t>Se eliminó el argumento "inicio=1" de las llamadas a la función "enumerate" y se ajustaron los índices dentro del bucle "for" para que comiencen desde 1.</t>
+  </si>
+  <si>
+    <t>1.5 Horas</t>
   </si>
 </sst>
 </file>
@@ -123,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -148,6 +160,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -457,14 +472,14 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
@@ -565,24 +580,38 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>45201</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45201</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="8">
+        <v>45201</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3"/>
     </row>
   </sheetData>

--- a/Documentación/Plantilla_Bitacora_ResoluciónProb.xlsx
+++ b/Documentación/Plantilla_Bitacora_ResoluciónProb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5543A2-FDB4-48F3-BEC1-7D33288B0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCACCD2B-3C5B-4BDC-B06E-AFE8E8913F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Tecnológico de Costa Rica</t>
   </si>
@@ -60,6 +60,27 @@
   </si>
   <si>
     <t>1.5 Horas</t>
+  </si>
+  <si>
+    <t>Se observó que la función no tenía ningún parámetro que pusiera la información dentro del HTML, por lo que se colocarón parámetros que buscaran los datos en la lista infoPaises.</t>
+  </si>
+  <si>
+    <t>2 días</t>
+  </si>
+  <si>
+    <t>Error al generar un HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se observó que era más fácil trabajar con la librería BeautifulSoup4, con la finalidad de crear archivos HTML más fácilmente.  </t>
+  </si>
+  <si>
+    <t>3 horas</t>
+  </si>
+  <si>
+    <t>El HTML no se abre al corres cualquier función</t>
+  </si>
+  <si>
+    <t>Se observó que se debía importar la librería webbrowser para que el return abra el HTML en el navegador de preferencia del usuario</t>
   </si>
 </sst>
 </file>
@@ -162,8 +183,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +501,7 @@
     <col min="1" max="1" width="1.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="59.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
@@ -550,35 +571,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>45194</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10">
+        <v>45194</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="8">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10">
+        <v>45203</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="8">
+        <v>45201</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45201</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -587,32 +636,23 @@
       <c r="B10" s="8">
         <v>45201</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="8">
-        <v>45201</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45203</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="8">
-        <v>45201</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentación/Plantilla_Bitacora_ResoluciónProb.xlsx
+++ b/Documentación/Plantilla_Bitacora_ResoluciónProb.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCACCD2B-3C5B-4BDC-B06E-AFE8E8913F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DEE04C-204E-40EE-A59F-D6DAA6B20BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Tecnológico de Costa Rica</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Se observó que se debía importar la librería webbrowser para que el return abra el HTML en el navegador de preferencia del usuario</t>
+  </si>
+  <si>
+    <t>2.5 horas</t>
   </si>
 </sst>
 </file>
@@ -492,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +610,9 @@
       <c r="E8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
